--- a/data/trans_dic/P21D_3_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_3_R-Dificultad-trans_dic.xlsx
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01892752038109264</v>
+        <v>0.02123656661256837</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01042290215020207</v>
+        <v>0.01059799681642006</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01025938064766388</v>
+        <v>0.01156443831843313</v>
       </c>
     </row>
     <row r="7">
@@ -652,10 +652,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.008370715210847847</v>
+        <v>0.007892889501130859</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.003790307250317044</v>
+        <v>0.004984478434655048</v>
       </c>
     </row>
     <row r="10">
@@ -719,7 +719,7 @@
         <v>0.001408523404604009</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0006701762271531578</v>
+        <v>0.0006701762271531577</v>
       </c>
     </row>
     <row r="14">
@@ -746,10 +746,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.008410505904167025</v>
+        <v>0.006984220219711792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.003293440356419746</v>
+        <v>0.003680376981550941</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0003306669060518244</v>
+        <v>0.0003326005984518949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.000230381184064653</v>
+        <v>0.0002301908246598566</v>
       </c>
     </row>
     <row r="18">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.002500596017150712</v>
+        <v>0.002693426894217568</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.00331095735466587</v>
+        <v>0.003075965828170658</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.001965017177423871</v>
+        <v>0.002017697510660962</v>
       </c>
     </row>
     <row r="19">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3738</v>
+        <v>4194</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2811</v>
+        <v>2859</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4793</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="8">
@@ -1034,10 +1034,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>4012</v>
+        <v>3783</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3318</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1162,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4194</v>
+        <v>3482</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3451</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="20">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23">
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3878</v>
+        <v>4177</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5571</v>
+        <v>5176</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6354</v>
+        <v>6524</v>
       </c>
     </row>
     <row r="24">
